--- a/API/Resources/Template/ArticleCategory/ArticleCategoryListTemplate.xlsx
+++ b/API/Resources/Template/ArticleCategory/ArticleCategoryListTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HIEU\hoc\Dropzone\API\Resources\Template\ArticleCategory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HIEU\hoc\DropzoneUpdate\API\Resources\Template\ArticleCategory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>#</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Update Time</t>
-  </si>
-  <si>
-    <t>&amp;=result.Status</t>
   </si>
   <si>
     <t>&amp;=result.Position</t>
@@ -429,7 +426,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -447,10 +444,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -468,22 +465,20 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
